--- a/manpower_log/Attandance_Log/hc_03_Attandance.xlsx
+++ b/manpower_log/Attandance_Log/hc_03_Attandance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\Attandance_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECA3DD-E9E3-47F9-B01C-749B5590F335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F33E22-FA22-4EC8-8B09-5CA3ECC15CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01AB3B44-F328-49A9-90F2-CA1696C168BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="288">
   <si>
     <t>Plumber</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Shabul Islam</t>
   </si>
   <si>
-    <t>Asad Ali</t>
-  </si>
-  <si>
     <t>Tirpa Tamang</t>
   </si>
   <si>
@@ -748,9 +745,6 @@
   </si>
   <si>
     <t>Mohammad Ramzan</t>
-  </si>
-  <si>
-    <t>Welder</t>
   </si>
   <si>
     <t>Jamaluddin Ansari</t>
@@ -1508,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9846F4F7-E5C0-4409-A655-2411C9BED3FC}">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D272"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1522,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickBot="1">
       <c r="A1" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1534,13 +1528,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5">
         <v>3187</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1549,13 +1543,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="5">
         <v>3059</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1564,13 +1558,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5">
         <v>3869</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1579,13 +1573,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5">
         <v>3870</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1594,13 +1588,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="5">
         <v>3004</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1609,13 +1603,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="5">
         <v>4510</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1624,13 +1618,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="7">
         <v>2287</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1639,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5">
         <v>3289</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1654,13 +1648,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5">
         <v>3275</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1669,13 +1663,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="5">
         <v>2569</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1684,13 +1678,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="5">
         <v>1599</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1699,13 +1693,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="5">
         <v>3782</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1714,13 +1708,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1">
         <v>3182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1729,13 +1723,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="1">
         <v>3181</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1744,13 +1738,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1">
         <v>3307</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -1759,13 +1753,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1">
         <v>3308</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -1774,13 +1768,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1">
         <v>3304</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -1789,13 +1783,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1">
         <v>3305</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1804,13 +1798,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1">
         <v>3306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -1819,13 +1813,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="1">
         <v>3303</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -1834,13 +1828,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1">
         <v>3088</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -1849,13 +1843,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="1">
         <v>3183</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1864,13 +1858,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1">
         <v>2369</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1879,13 +1873,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="1">
         <v>4151</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1894,13 +1888,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1">
         <v>2219</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1909,13 +1903,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1">
         <v>2875</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1924,13 +1918,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1">
         <v>2878</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1939,13 +1933,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="1">
         <v>2335</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1954,13 +1948,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="4">
         <v>4262</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1969,13 +1963,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4">
         <v>4263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1984,13 +1978,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4">
         <v>4264</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1999,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4">
         <v>4265</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2014,13 +2008,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="4">
         <v>4266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2029,13 +2023,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="4">
         <v>4267</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2044,13 +2038,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="4">
         <v>4268</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2059,13 +2053,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="4">
         <v>4269</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2074,13 +2068,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="4">
         <v>4270</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2089,13 +2083,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="4">
         <v>4271</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2104,13 +2098,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="4">
         <v>4272</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -2119,13 +2113,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4">
         <v>4273</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -2134,13 +2128,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="4">
         <v>4274</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -2149,13 +2143,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="4">
         <v>4275</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -2164,13 +2158,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C44" s="4">
         <v>4276</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -2179,13 +2173,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4">
         <v>4277</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -2194,13 +2188,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1">
         <v>2286</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -2209,13 +2203,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="1">
         <v>2314</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -2224,13 +2218,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="1">
         <v>2953</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -2239,13 +2233,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" s="1">
         <v>1917</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -2254,13 +2248,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1">
         <v>2173</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -2269,13 +2263,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="1">
         <v>2794</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -2284,13 +2278,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1">
         <v>2905</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -2299,13 +2293,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="1">
         <v>2950</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -2314,13 +2308,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1">
         <v>2808</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -2329,13 +2323,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1">
         <v>2790</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -2344,13 +2338,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1">
         <v>4170</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -2359,13 +2353,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="1">
         <v>4159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -2374,13 +2368,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1">
         <v>4155</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -2389,13 +2383,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="1">
         <v>4171</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -2404,13 +2398,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1">
         <v>4161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -2419,13 +2413,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1">
         <v>4168</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -2434,13 +2428,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1">
         <v>4172</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -2449,13 +2443,13 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="1">
         <v>4154</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -2464,13 +2458,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" s="4">
         <v>4208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -2479,13 +2473,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4">
         <v>4204</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -2494,13 +2488,13 @@
         <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4">
         <v>3076</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -2509,13 +2503,13 @@
         <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4">
         <v>4555</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -2524,13 +2518,13 @@
         <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4">
         <v>4556</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -2539,13 +2533,13 @@
         <v>72</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="4">
         <v>4560</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -2554,13 +2548,13 @@
         <v>73</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4">
         <v>4563</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -2569,13 +2563,13 @@
         <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4">
         <v>4342</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -2584,13 +2578,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="4">
         <v>4343</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -2599,13 +2593,13 @@
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4">
         <v>4345</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -2614,13 +2608,13 @@
         <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" s="4">
         <v>2125</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -2629,13 +2623,13 @@
         <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4">
         <v>4571</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -2644,13 +2638,13 @@
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4">
         <v>3257</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -2659,13 +2653,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4">
         <v>4550</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" s="1"/>
     </row>
@@ -2674,13 +2668,13 @@
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4">
         <v>4551</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -2689,13 +2683,13 @@
         <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4">
         <v>4565</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E79" s="1"/>
     </row>
@@ -2704,13 +2698,13 @@
         <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4">
         <v>2937</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -2719,13 +2713,13 @@
         <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4">
         <v>4776</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -2734,13 +2728,13 @@
         <v>88</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="4">
         <v>4781</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -2749,13 +2743,13 @@
         <v>89</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4">
         <v>4784</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -2764,13 +2758,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="4">
         <v>4791</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="1"/>
     </row>
@@ -2779,13 +2773,13 @@
         <v>91</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" s="4">
         <v>4792</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -2794,13 +2788,13 @@
         <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4">
         <v>4793</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="1"/>
     </row>
@@ -2809,13 +2803,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="4">
         <v>4794</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -2824,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="4">
         <v>2922</v>
@@ -2839,7 +2833,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" s="1">
         <v>2921</v>
@@ -2854,7 +2848,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="1">
         <v>2738</v>
@@ -2869,7 +2863,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" s="1">
         <v>2109</v>
@@ -2884,7 +2878,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C92" s="1">
         <v>2002</v>
@@ -2899,7 +2893,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1">
         <v>2996</v>
@@ -2914,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="1">
         <v>3089</v>
@@ -2929,7 +2923,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="1">
         <v>3325</v>
@@ -2944,7 +2938,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="1">
         <v>2162</v>
@@ -2959,7 +2953,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="1">
         <v>2215</v>
@@ -2974,7 +2968,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="1">
         <v>3090</v>
@@ -2989,7 +2983,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="1">
         <v>2552</v>
@@ -3004,7 +2998,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1">
         <v>2017</v>
@@ -3016,13 +3010,13 @@
     </row>
     <row r="101" spans="1:5" ht="15.6">
       <c r="A101" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" s="1">
-        <v>2197</v>
+        <v>1922</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>119</v>
@@ -3031,13 +3025,13 @@
     </row>
     <row r="102" spans="1:5" ht="15.6">
       <c r="A102" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="1">
-        <v>1922</v>
+        <v>2294</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>119</v>
@@ -3046,13 +3040,13 @@
     </row>
     <row r="103" spans="1:5" ht="15.6">
       <c r="A103" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C103" s="1">
-        <v>2294</v>
+        <v>2158</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>119</v>
@@ -3061,13 +3055,13 @@
     </row>
     <row r="104" spans="1:5" ht="15.6">
       <c r="A104" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="1">
-        <v>2158</v>
+        <v>4153</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>119</v>
@@ -3076,13 +3070,13 @@
     </row>
     <row r="105" spans="1:5" ht="15.6">
       <c r="A105" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="1">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>119</v>
@@ -3091,13 +3085,13 @@
     </row>
     <row r="106" spans="1:5" ht="15.6">
       <c r="A106" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" s="1">
-        <v>4152</v>
+        <v>2302</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>119</v>
@@ -3106,13 +3100,13 @@
     </row>
     <row r="107" spans="1:5" ht="15.6">
       <c r="A107" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" s="1">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>119</v>
@@ -3121,13 +3115,13 @@
     </row>
     <row r="108" spans="1:5" ht="15.6">
       <c r="A108" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="1">
-        <v>2303</v>
+        <v>2814</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>119</v>
@@ -3136,28 +3130,28 @@
     </row>
     <row r="109" spans="1:5" ht="15.6">
       <c r="A109" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C109" s="1">
-        <v>2814</v>
+        <v>3163</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="15.6">
       <c r="A110" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="1">
-        <v>3163</v>
+        <v>3196</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>73</v>
@@ -3166,13 +3160,13 @@
     </row>
     <row r="111" spans="1:5" ht="15.6">
       <c r="A111" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="1">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>73</v>
@@ -3181,13 +3175,13 @@
     </row>
     <row r="112" spans="1:5" ht="15.6">
       <c r="A112" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" s="1">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>73</v>
@@ -3196,13 +3190,13 @@
     </row>
     <row r="113" spans="1:5" ht="15.6">
       <c r="A113" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
-        <v>3198</v>
+        <v>2791</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>73</v>
@@ -3211,13 +3205,13 @@
     </row>
     <row r="114" spans="1:5" ht="15.6">
       <c r="A114" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>73</v>
@@ -3226,13 +3220,13 @@
     </row>
     <row r="115" spans="1:5" ht="15.6">
       <c r="A115" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="1">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>73</v>
@@ -3241,13 +3235,13 @@
     </row>
     <row r="116" spans="1:5" ht="15.6">
       <c r="A116" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="1">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>73</v>
@@ -3256,13 +3250,13 @@
     </row>
     <row r="117" spans="1:5" ht="15.6">
       <c r="A117" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="1">
-        <v>2798</v>
+        <v>3104</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>73</v>
@@ -3271,13 +3265,13 @@
     </row>
     <row r="118" spans="1:5" ht="15.6">
       <c r="A118" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="1">
-        <v>3104</v>
+        <v>3555</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>73</v>
@@ -3286,13 +3280,13 @@
     </row>
     <row r="119" spans="1:5" ht="15.6">
       <c r="A119" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="1">
-        <v>3555</v>
+        <v>3162</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>73</v>
@@ -3301,13 +3295,13 @@
     </row>
     <row r="120" spans="1:5" ht="15.6">
       <c r="A120" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" s="1">
-        <v>3162</v>
+        <v>3283</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>73</v>
@@ -3316,13 +3310,13 @@
     </row>
     <row r="121" spans="1:5" ht="15.6">
       <c r="A121" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C121" s="1">
-        <v>3283</v>
+        <v>3157</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>73</v>
@@ -3331,13 +3325,13 @@
     </row>
     <row r="122" spans="1:5" ht="15.6">
       <c r="A122" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C122" s="1">
-        <v>3157</v>
+        <v>2815</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>73</v>
@@ -3346,13 +3340,13 @@
     </row>
     <row r="123" spans="1:5" ht="15.6">
       <c r="A123" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" s="1">
-        <v>2815</v>
+        <v>3281</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>73</v>
@@ -3361,13 +3355,13 @@
     </row>
     <row r="124" spans="1:5" ht="15.6">
       <c r="A124" s="5">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" s="1">
-        <v>3281</v>
+        <v>2325</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>73</v>
@@ -3376,13 +3370,13 @@
     </row>
     <row r="125" spans="1:5" ht="15.6">
       <c r="A125" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C125" s="1">
-        <v>2325</v>
+        <v>3010</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>73</v>
@@ -3391,13 +3385,13 @@
     </row>
     <row r="126" spans="1:5" ht="15.6">
       <c r="A126" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" s="1">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>73</v>
@@ -3406,13 +3400,13 @@
     </row>
     <row r="127" spans="1:5" ht="15.6">
       <c r="A127" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C127" s="1">
-        <v>3013</v>
+        <v>3193</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>73</v>
@@ -3421,13 +3415,13 @@
     </row>
     <row r="128" spans="1:5" ht="15.6">
       <c r="A128" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="1">
-        <v>3193</v>
+        <v>3200</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>73</v>
@@ -3436,13 +3430,13 @@
     </row>
     <row r="129" spans="1:5" ht="15.6">
       <c r="A129" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" s="1">
-        <v>3200</v>
+        <v>2822</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>73</v>
@@ -3451,13 +3445,13 @@
     </row>
     <row r="130" spans="1:5" ht="15.6">
       <c r="A130" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C130" s="1">
-        <v>2822</v>
+        <v>3234</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>73</v>
@@ -3466,13 +3460,13 @@
     </row>
     <row r="131" spans="1:5" ht="15.6">
       <c r="A131" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="1">
-        <v>3234</v>
+        <v>3989</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>73</v>
@@ -3481,13 +3475,13 @@
     </row>
     <row r="132" spans="1:5" ht="15.6">
       <c r="A132" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1">
-        <v>3989</v>
+        <v>4119</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>73</v>
@@ -3496,13 +3490,13 @@
     </row>
     <row r="133" spans="1:5" ht="15.6">
       <c r="A133" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133" s="1">
-        <v>4119</v>
+        <v>4130</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>73</v>
@@ -3511,13 +3505,13 @@
     </row>
     <row r="134" spans="1:5" ht="15.6">
       <c r="A134" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C134" s="1">
-        <v>4130</v>
+        <v>4134</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>73</v>
@@ -3526,13 +3520,13 @@
     </row>
     <row r="135" spans="1:5" ht="15.6">
       <c r="A135" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C135" s="1">
-        <v>4134</v>
+        <v>4122</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>73</v>
@@ -3541,13 +3535,13 @@
     </row>
     <row r="136" spans="1:5" ht="15.6">
       <c r="A136" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="1">
-        <v>4122</v>
+        <v>4135</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>73</v>
@@ -3556,13 +3550,13 @@
     </row>
     <row r="137" spans="1:5" ht="15.6">
       <c r="A137" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="1">
-        <v>4135</v>
+        <v>4120</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>73</v>
@@ -3571,13 +3565,13 @@
     </row>
     <row r="138" spans="1:5" ht="15.6">
       <c r="A138" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="1">
-        <v>4120</v>
+        <v>4136</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>73</v>
@@ -3586,13 +3580,13 @@
     </row>
     <row r="139" spans="1:5" ht="15.6">
       <c r="A139" s="5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C139" s="1">
-        <v>4136</v>
+        <v>4132</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>73</v>
@@ -3601,13 +3595,13 @@
     </row>
     <row r="140" spans="1:5" ht="15.6">
       <c r="A140" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C140" s="1">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>73</v>
@@ -3616,13 +3610,13 @@
     </row>
     <row r="141" spans="1:5" ht="15.6">
       <c r="A141" s="5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141" s="1">
-        <v>4131</v>
+        <v>4123</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>73</v>
@@ -3631,13 +3625,13 @@
     </row>
     <row r="142" spans="1:5" ht="15.6">
       <c r="A142" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C142" s="1">
-        <v>4123</v>
+        <v>2806</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>73</v>
@@ -3646,13 +3640,13 @@
     </row>
     <row r="143" spans="1:5" ht="15.6">
       <c r="A143" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C143" s="1">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>73</v>
@@ -3661,13 +3655,13 @@
     </row>
     <row r="144" spans="1:5" ht="15.6">
       <c r="A144" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C144" s="1">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>73</v>
@@ -3676,13 +3670,13 @@
     </row>
     <row r="145" spans="1:5" ht="15.6">
       <c r="A145" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C145" s="1">
-        <v>2810</v>
+        <v>2917</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>73</v>
@@ -3691,13 +3685,13 @@
     </row>
     <row r="146" spans="1:5" ht="15.6">
       <c r="A146" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C146" s="1">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>73</v>
@@ -3706,13 +3700,13 @@
     </row>
     <row r="147" spans="1:5" ht="15.6">
       <c r="A147" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C147" s="1">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>73</v>
@@ -3721,13 +3715,13 @@
     </row>
     <row r="148" spans="1:5" ht="15.6">
       <c r="A148" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C148" s="1">
-        <v>2919</v>
+        <v>2995</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>73</v>
@@ -3736,13 +3730,13 @@
     </row>
     <row r="149" spans="1:5" ht="15.6">
       <c r="A149" s="5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C149" s="1">
-        <v>2995</v>
+        <v>3165</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>73</v>
@@ -3751,13 +3745,13 @@
     </row>
     <row r="150" spans="1:5" ht="15.6">
       <c r="A150" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C150" s="1">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>73</v>
@@ -3766,13 +3760,13 @@
     </row>
     <row r="151" spans="1:5" ht="15.6">
       <c r="A151" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C151" s="1">
-        <v>3167</v>
+        <v>3189</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>73</v>
@@ -3781,13 +3775,13 @@
     </row>
     <row r="152" spans="1:5" ht="15.6">
       <c r="A152" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152" s="1">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>73</v>
@@ -3796,13 +3790,13 @@
     </row>
     <row r="153" spans="1:5" ht="15.6">
       <c r="A153" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C153" s="1">
-        <v>3192</v>
+        <v>4775</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>73</v>
@@ -3811,28 +3805,28 @@
     </row>
     <row r="154" spans="1:5" ht="15.6">
       <c r="A154" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C154" s="1">
-        <v>4775</v>
+        <v>3040</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" ht="15.6">
       <c r="A155" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C155" s="1">
-        <v>3040</v>
+        <v>3833</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>15</v>
@@ -3841,13 +3835,13 @@
     </row>
     <row r="156" spans="1:5" ht="15.6">
       <c r="A156" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C156" s="1">
-        <v>3833</v>
+        <v>4003</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>15</v>
@@ -3856,13 +3850,13 @@
     </row>
     <row r="157" spans="1:5" ht="15.6">
       <c r="A157" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C157" s="1">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>15</v>
@@ -3871,13 +3865,13 @@
     </row>
     <row r="158" spans="1:5" ht="15.6">
       <c r="A158" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C158" s="1">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>15</v>
@@ -3886,13 +3880,13 @@
     </row>
     <row r="159" spans="1:5" ht="15.6">
       <c r="A159" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C159" s="1">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>15</v>
@@ -3901,13 +3895,13 @@
     </row>
     <row r="160" spans="1:5" ht="15.6">
       <c r="A160" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C160" s="1">
-        <v>4007</v>
+        <v>4073</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>15</v>
@@ -3916,13 +3910,13 @@
     </row>
     <row r="161" spans="1:5" ht="15.6">
       <c r="A161" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C161" s="1">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>15</v>
@@ -3931,13 +3925,13 @@
     </row>
     <row r="162" spans="1:5" ht="15.6">
       <c r="A162" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C162" s="1">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>15</v>
@@ -3946,13 +3940,13 @@
     </row>
     <row r="163" spans="1:5" ht="15.6">
       <c r="A163" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C163" s="1">
-        <v>4071</v>
+        <v>4080</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>15</v>
@@ -3961,13 +3955,13 @@
     </row>
     <row r="164" spans="1:5" ht="15.6">
       <c r="A164" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C164" s="1">
-        <v>4080</v>
+        <v>4066</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>15</v>
@@ -3976,13 +3970,13 @@
     </row>
     <row r="165" spans="1:5" ht="15.6">
       <c r="A165" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C165" s="1">
-        <v>4066</v>
+        <v>4070</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>15</v>
@@ -3991,13 +3985,13 @@
     </row>
     <row r="166" spans="1:5" ht="15.6">
       <c r="A166" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C166" s="1">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>15</v>
@@ -4006,13 +4000,13 @@
     </row>
     <row r="167" spans="1:5" ht="15.6">
       <c r="A167" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C167" s="1">
-        <v>4065</v>
+        <v>4068</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>15</v>
@@ -4021,13 +4015,13 @@
     </row>
     <row r="168" spans="1:5" ht="15.6">
       <c r="A168" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C168" s="1">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>15</v>
@@ -4036,13 +4030,13 @@
     </row>
     <row r="169" spans="1:5" ht="15.6">
       <c r="A169" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C169" s="1">
-        <v>4067</v>
+        <v>4061</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>15</v>
@@ -4051,13 +4045,13 @@
     </row>
     <row r="170" spans="1:5" ht="15.6">
       <c r="A170" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C170" s="1">
-        <v>4061</v>
+        <v>4081</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>15</v>
@@ -4066,13 +4060,13 @@
     </row>
     <row r="171" spans="1:5" ht="15.6">
       <c r="A171" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C171" s="1">
-        <v>4081</v>
+        <v>4075</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>15</v>
@@ -4081,13 +4075,13 @@
     </row>
     <row r="172" spans="1:5" ht="15.6">
       <c r="A172" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C172" s="1">
-        <v>4075</v>
+        <v>4082</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>15</v>
@@ -4096,13 +4090,13 @@
     </row>
     <row r="173" spans="1:5" ht="15.6">
       <c r="A173" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C173" s="1">
-        <v>4082</v>
+        <v>4063</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>15</v>
@@ -4111,13 +4105,13 @@
     </row>
     <row r="174" spans="1:5" ht="15.6">
       <c r="A174" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C174" s="1">
-        <v>4063</v>
+        <v>4212</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>15</v>
@@ -4126,13 +4120,13 @@
     </row>
     <row r="175" spans="1:5" ht="15.6">
       <c r="A175" s="5">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C175" s="1">
-        <v>4212</v>
+        <v>4495</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>15</v>
@@ -4141,13 +4135,13 @@
     </row>
     <row r="176" spans="1:5" ht="15.6">
       <c r="A176" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C176" s="1">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>15</v>
@@ -4156,13 +4150,13 @@
     </row>
     <row r="177" spans="1:5" ht="15.6">
       <c r="A177" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C177" s="1">
-        <v>4496</v>
+        <v>4537</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>15</v>
@@ -4171,13 +4165,13 @@
     </row>
     <row r="178" spans="1:5" ht="15.6">
       <c r="A178" s="5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C178" s="1">
-        <v>4537</v>
+        <v>4052</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>15</v>
@@ -4186,13 +4180,13 @@
     </row>
     <row r="179" spans="1:5" ht="15.6">
       <c r="A179" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C179" s="1">
-        <v>4052</v>
+        <v>4062</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>15</v>
@@ -4201,13 +4195,13 @@
     </row>
     <row r="180" spans="1:5" ht="15.6">
       <c r="A180" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C180" s="1">
-        <v>4062</v>
+        <v>3834</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>15</v>
@@ -4216,13 +4210,13 @@
     </row>
     <row r="181" spans="1:5" ht="15.6">
       <c r="A181" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C181" s="1">
-        <v>3834</v>
+        <v>4050</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>15</v>
@@ -4231,13 +4225,13 @@
     </row>
     <row r="182" spans="1:5" ht="15.6">
       <c r="A182" s="5">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C182" s="1">
-        <v>4050</v>
+        <v>3043</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>15</v>
@@ -4246,13 +4240,13 @@
     </row>
     <row r="183" spans="1:5" ht="15.6">
       <c r="A183" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C183" s="1">
-        <v>3043</v>
+        <v>4703</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>15</v>
@@ -4261,13 +4255,13 @@
     </row>
     <row r="184" spans="1:5" ht="15.6">
       <c r="A184" s="5">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C184" s="1">
-        <v>4703</v>
+        <v>2885</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>15</v>
@@ -4276,13 +4270,13 @@
     </row>
     <row r="185" spans="1:5" ht="15.6">
       <c r="A185" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C185" s="1">
-        <v>2885</v>
+        <v>2920</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>15</v>
@@ -4291,13 +4285,13 @@
     </row>
     <row r="186" spans="1:5" ht="15.6">
       <c r="A186" s="5">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="1">
-        <v>2920</v>
+        <v>2820</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>15</v>
@@ -4306,13 +4300,13 @@
     </row>
     <row r="187" spans="1:5" ht="15.6">
       <c r="A187" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C187" s="1">
-        <v>2820</v>
+        <v>3276</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>15</v>
@@ -4321,13 +4315,13 @@
     </row>
     <row r="188" spans="1:5" ht="15.6">
       <c r="A188" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C188" s="1">
-        <v>3276</v>
+        <v>2947</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>15</v>
@@ -4336,13 +4330,13 @@
     </row>
     <row r="189" spans="1:5" ht="15.6">
       <c r="A189" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C189" s="1">
-        <v>2947</v>
+        <v>2936</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>15</v>
@@ -4351,13 +4345,13 @@
     </row>
     <row r="190" spans="1:5" ht="15.6">
       <c r="A190" s="5">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C190" s="1">
-        <v>2936</v>
+        <v>3277</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>15</v>
@@ -4366,13 +4360,13 @@
     </row>
     <row r="191" spans="1:5" ht="15.6">
       <c r="A191" s="5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C191" s="1">
-        <v>3277</v>
+        <v>4137</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>15</v>
@@ -4381,13 +4375,13 @@
     </row>
     <row r="192" spans="1:5" ht="15.6">
       <c r="A192" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C192" s="1">
-        <v>4137</v>
+        <v>4141</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>15</v>
@@ -4396,13 +4390,13 @@
     </row>
     <row r="193" spans="1:5" ht="15.6">
       <c r="A193" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193" s="1">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>15</v>
@@ -4411,13 +4405,13 @@
     </row>
     <row r="194" spans="1:5" ht="15.6">
       <c r="A194" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C194" s="1">
-        <v>4139</v>
+        <v>2326</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>15</v>
@@ -4426,13 +4420,13 @@
     </row>
     <row r="195" spans="1:5" ht="15.6">
       <c r="A195" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C195" s="1">
-        <v>2326</v>
+        <v>2080</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>15</v>
@@ -4441,13 +4435,13 @@
     </row>
     <row r="196" spans="1:5" ht="15.6">
       <c r="A196" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C196" s="1">
-        <v>2080</v>
+        <v>3003</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>15</v>
@@ -4456,13 +4450,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.6">
       <c r="A197" s="5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197" s="1">
-        <v>3003</v>
+        <v>2817</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>15</v>
@@ -4471,13 +4465,13 @@
     </row>
     <row r="198" spans="1:5" ht="15.6">
       <c r="A198" s="5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C198" s="1">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>15</v>
@@ -4486,13 +4480,13 @@
     </row>
     <row r="199" spans="1:5" ht="15.6">
       <c r="A199" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C199" s="1">
-        <v>2818</v>
+        <v>2962</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>15</v>
@@ -4501,13 +4495,13 @@
     </row>
     <row r="200" spans="1:5" ht="15.6">
       <c r="A200" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C200" s="1">
-        <v>2962</v>
+        <v>3677</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>15</v>
@@ -4516,13 +4510,13 @@
     </row>
     <row r="201" spans="1:5" ht="15.6">
       <c r="A201" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C201" s="1">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>15</v>
@@ -4531,13 +4525,13 @@
     </row>
     <row r="202" spans="1:5" ht="15.6">
       <c r="A202" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C202" s="1">
-        <v>3679</v>
+        <v>3363</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>15</v>
@@ -4546,13 +4540,13 @@
     </row>
     <row r="203" spans="1:5" ht="15.6">
       <c r="A203" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C203" s="1">
-        <v>3363</v>
+        <v>3388</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>15</v>
@@ -4561,13 +4555,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.6">
       <c r="A204" s="5">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C204" s="1">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>15</v>
@@ -4576,13 +4570,13 @@
     </row>
     <row r="205" spans="1:5" ht="15.6">
       <c r="A205" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C205" s="1">
-        <v>3390</v>
+        <v>3505</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>15</v>
@@ -4591,13 +4585,13 @@
     </row>
     <row r="206" spans="1:5" ht="15.6">
       <c r="A206" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C206" s="1">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>15</v>
@@ -4606,13 +4600,13 @@
     </row>
     <row r="207" spans="1:5" ht="15.6">
       <c r="A207" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C207" s="1">
-        <v>3506</v>
+        <v>2978</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>15</v>
@@ -4621,13 +4615,13 @@
     </row>
     <row r="208" spans="1:5" ht="15.6">
       <c r="A208" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C208" s="1">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>15</v>
@@ -4636,13 +4630,13 @@
     </row>
     <row r="209" spans="1:5" ht="15.6">
       <c r="A209" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" s="1">
-        <v>2979</v>
+        <v>2601</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>15</v>
@@ -4651,13 +4645,13 @@
     </row>
     <row r="210" spans="1:5" ht="15.6">
       <c r="A210" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="1">
-        <v>2601</v>
+        <v>2223</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>15</v>
@@ -4666,28 +4660,28 @@
     </row>
     <row r="211" spans="1:5" ht="15.6">
       <c r="A211" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C211" s="1">
-        <v>2223</v>
+        <v>14</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1957</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" ht="15.6">
       <c r="A212" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212" s="3">
-        <v>1957</v>
+        <v>2208</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>11</v>
@@ -4696,13 +4690,13 @@
     </row>
     <row r="213" spans="1:5" ht="15.6">
       <c r="A213" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" s="3">
-        <v>2208</v>
+        <v>12</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2143</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>11</v>
@@ -4711,133 +4705,133 @@
     </row>
     <row r="214" spans="1:5" ht="15.6">
       <c r="A214" s="5">
-        <v>221</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" s="2">
-        <v>2143</v>
+        <v>222</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C214" s="8">
+        <v>2664</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E214" s="1"/>
+      <c r="E214" s="9"/>
     </row>
     <row r="215" spans="1:5" ht="15.6">
       <c r="A215" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C215" s="8">
-        <v>2664</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>238</v>
+        <v>2097</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E215" s="9"/>
     </row>
     <row r="216" spans="1:5" ht="15.6">
       <c r="A216" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C216" s="8">
-        <v>2097</v>
-      </c>
-      <c r="D216" s="8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E216" s="9"/>
     </row>
     <row r="217" spans="1:5" ht="15.6">
       <c r="A217" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C217" s="8">
-        <v>2147</v>
-      </c>
-      <c r="D217" s="8" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E217" s="9"/>
     </row>
     <row r="218" spans="1:5" ht="15.6">
       <c r="A218" s="5">
-        <v>225</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C218" s="8">
-        <v>2358</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2965</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" ht="15.6">
       <c r="A219" s="5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C219" s="1">
-        <v>2965</v>
+        <v>3239</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" ht="15.6">
       <c r="A220" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1">
-        <v>3239</v>
+        <v>2833</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" ht="15.6">
       <c r="A221" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1">
-        <v>2833</v>
+        <v>3066</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" ht="15.6">
       <c r="A222" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" s="1">
-        <v>3066</v>
+        <v>3265</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>2</v>
@@ -4846,729 +4840,714 @@
     </row>
     <row r="223" spans="1:5" ht="15.6">
       <c r="A223" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C223" s="1">
-        <v>3265</v>
+        <v>3048</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" ht="15.6">
-      <c r="A224" s="5">
-        <v>231</v>
-      </c>
-      <c r="B224" s="1" t="s">
+    <row r="224" spans="1:5">
+      <c r="A224" s="10">
         <v>1</v>
       </c>
-      <c r="C224" s="1">
-        <v>3048</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E224" s="1"/>
+      <c r="B224" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" s="8">
+        <v>1695</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C225" s="8">
-        <v>1695</v>
+        <v>3301</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C226" s="8">
-        <v>3301</v>
+        <v>3119</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C227" s="8">
-        <v>3119</v>
+        <v>3319</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C228" s="8">
-        <v>3319</v>
+        <v>3143</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C229" s="8">
-        <v>3143</v>
+        <v>3176</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C230" s="8">
-        <v>3176</v>
+        <v>3300</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C231" s="8">
-        <v>3300</v>
+        <v>3185</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C232" s="8">
-        <v>3185</v>
+        <v>3116</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C233" s="8">
-        <v>3116</v>
+        <v>2180</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C234" s="8">
-        <v>2180</v>
+        <v>4736</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C235" s="8">
-        <v>4736</v>
+        <v>4629</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C236" s="8">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C237" s="8">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C238" s="8">
-        <v>4626</v>
+        <v>4619</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C239" s="8">
-        <v>4619</v>
+        <v>4631</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C240" s="8">
-        <v>4631</v>
+        <v>4628</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C241" s="8">
-        <v>4628</v>
+        <v>4630</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C242" s="8">
-        <v>4630</v>
+        <v>4622</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C243" s="8">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C244" s="8">
-        <v>4623</v>
+        <v>4181</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C245" s="8">
-        <v>4181</v>
+        <v>4412</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C246" s="8">
-        <v>4412</v>
+        <v>4180</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C247" s="8">
-        <v>4180</v>
+        <v>4620</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C248" s="8">
-        <v>4620</v>
+        <v>2423</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C249" s="8">
-        <v>2423</v>
+        <v>2060</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C250" s="8">
-        <v>2060</v>
+        <v>3122</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C251" s="8">
-        <v>3122</v>
+        <v>2022</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C252" s="8">
-        <v>2022</v>
+        <v>3113</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C253" s="8">
-        <v>3113</v>
+        <v>3178</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C254" s="8">
-        <v>3178</v>
+        <v>3123</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C255" s="8">
-        <v>3123</v>
+        <v>4609</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C256" s="8">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C257" s="8">
-        <v>4603</v>
+        <v>4607</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C258" s="8">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C259" s="8">
-        <v>4606</v>
+        <v>4610</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C260" s="8">
-        <v>4610</v>
+        <v>4601</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="C261" s="8">
-        <v>4601</v>
+        <v>4618</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="C262" s="8">
-        <v>4618</v>
+        <v>1615</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C263" s="8">
-        <v>1615</v>
+        <v>2128</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C264" s="8">
-        <v>2128</v>
+        <v>1886</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C265" s="8">
-        <v>1886</v>
+        <v>4413</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C266" s="8">
-        <v>4413</v>
+        <v>4488</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C267" s="8">
-        <v>4488</v>
+        <v>4600</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C268" s="8">
-        <v>4600</v>
+        <v>4452</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C269" s="8">
-        <v>4452</v>
+        <v>3112</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C270" s="8">
-        <v>3112</v>
+        <v>4605</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C271" s="8">
-        <v>4605</v>
+        <v>4627</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="10">
-        <v>48</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C272" s="8">
-        <v>4627</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C166 C182">
+  <conditionalFormatting sqref="C165 C181">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$A166</formula>
+      <formula>$A165</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171:C172">
+  <conditionalFormatting sqref="C170:C171">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$A171</formula>
+      <formula>$A170</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
+  <conditionalFormatting sqref="C178">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$A179</formula>
+      <formula>$A178</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!</formula>

--- a/manpower_log/Attandance_Log/hc_03_Attandance.xlsx
+++ b/manpower_log/Attandance_Log/hc_03_Attandance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\Attandance_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F33E22-FA22-4EC8-8B09-5CA3ECC15CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505C9FC-4840-479A-A403-85E1B95C1333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01AB3B44-F328-49A9-90F2-CA1696C168BD}"/>
+    <workbookView xWindow="-564" yWindow="0" windowWidth="11664" windowHeight="12060" xr2:uid="{01AB3B44-F328-49A9-90F2-CA1696C168BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9846F4F7-E5C0-4409-A655-2411C9BED3FC}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D271"/>
     </sheetView>
   </sheetViews>
